--- a/biology/Botanique/Zygogynum_oligostigma/Zygogynum_oligostigma.xlsx
+++ b/biology/Botanique/Zygogynum_oligostigma/Zygogynum_oligostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygogynum oligostigma est une espèce d'arbuste de la famille des Winteraceae, endémique à la Nouvelle-Calédonie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste de 2 à 4 m de haut aux rameaux grêles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste de 2 à 4 m de haut aux rameaux grêles.
 Grandes fleurs, jaune pâle à orangé, teintées de pourpre intérieurement, solitaires ou sur des inflorescences partielles.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique au centre-est de la Grande Terre, dans la région de Kouaoua-Poro[1], en forêt dense humide et dans le maquis, sur des sols érodés de substrat ultramafique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique au centre-est de la Grande Terre, dans la région de Kouaoua-Poro, en forêt dense humide et dans le maquis, sur des sols érodés de substrat ultramafique.
 L'espèce n'est pas située dans des zones protégées et est menacée par l'exploitation minière et les feux de forêt.
 </t>
         </is>
